--- a/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
+++ b/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
+++ b/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
+++ b/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
+++ b/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1254,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
+++ b/数据整理/stocks/其他/RDSA-荷兰皇家壳牌.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4026</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -549,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2293</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -638,74 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>010344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -780,22 +764,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>97.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1677</t>
+          <t>0.1494</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -818,26 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -856,17 +840,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -875,7 +859,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -950,22 +934,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.06</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1677</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -988,26 +972,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1026,17 +1010,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1045,7 +1029,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,7 +1064,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1110,36 +1094,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.2293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1132,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>010344</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1191,112 +1213,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>